--- a/mySystem/mySystem/xls/LDPEBag/SOP-MFG-110-R01A 清场记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/SOP-MFG-110-R01A 清场记录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -710,13 +710,17 @@
   <si>
     <t>生产日期：2015年    月    日
 生产班次： 白班□   夜班□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清场要点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1069,6 +1073,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1078,15 +1169,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,86 +1202,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,7 +1223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1505,301 +1509,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="3" max="3" width="37" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="F4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="46" t="s">
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A19:F20"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:G20"/>
-    <mergeCell ref="H5:H20"/>
-    <mergeCell ref="I5:I20"/>
-    <mergeCell ref="C6:E6"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E5:E21"/>
+    <mergeCell ref="F5:F21"/>
+    <mergeCell ref="G5:G21"/>
+    <mergeCell ref="A20:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1846,34 +1802,34 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -1882,11 +1838,11 @@
       <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="13" t="s">
         <v>29</v>
       </c>
@@ -1907,19 +1863,19 @@
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
@@ -1928,17 +1884,17 @@
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="33"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
@@ -1947,17 +1903,17 @@
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="33"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
@@ -1966,51 +1922,51 @@
       <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="33"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36">
+      <c r="A9" s="40">
         <v>3</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="33"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="33"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
@@ -2019,17 +1975,17 @@
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="33"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
@@ -2038,149 +1994,138 @@
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="33"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36">
+      <c r="A13" s="40">
         <v>6</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="33"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="33"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="33"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="33"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="33"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="33"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="33"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="34"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="I5:I20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C12:E12"/>
@@ -2197,6 +2142,17 @@
     <mergeCell ref="H5:H20"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A19:F20"/>
+    <mergeCell ref="I5:I20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
